--- a/UnitTests/coils.xlsx
+++ b/UnitTests/coils.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>steel grade</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>coil #</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
 </sst>
 </file>
@@ -385,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,9 +393,10 @@
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -417,14 +412,8 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -440,11 +429,12 @@
       <c r="E2">
         <v>21</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>(ABS(B2-B3)/(9.9))*0.2+(ABS(C3-C2)/(40))*0.5+(ABS(D3-D2)/(6))*0.2+(ABS(E3-E2)/(60))*0.1</f>
+        <v>0.19838005050505048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -460,11 +450,12 @@
       <c r="E3">
         <v>22</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="0">(ABS(B3-B4)/(9.9))*0.2+(ABS(C4-C3)/(40))*0.5+(ABS(D4-D3)/(6))*0.2+(ABS(E4-E3)/(60))*0.1</f>
+        <v>0.33192487373737384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -480,11 +471,12 @@
       <c r="E4">
         <v>23.23</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.44208191666666685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -500,11 +492,12 @@
       <c r="E5">
         <v>26.4864</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.22130944696969701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -520,11 +513,12 @@
       <c r="E6">
         <v>79.55</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.35545075757575761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -540,11 +534,12 @@
       <c r="E7">
         <v>75.5</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.25923896464646468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -560,11 +555,12 @@
       <c r="E8">
         <v>65.444500000000005</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.50067614141414152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -580,11 +576,12 @@
       <c r="E9">
         <v>65.232299999999995</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.47092757070707075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -600,11 +597,12 @@
       <c r="E10">
         <v>64.23</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.27189469696969704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -620,11 +618,12 @@
       <c r="E11">
         <v>29.24</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.18169754789393938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -640,11 +639,12 @@
       <c r="E12">
         <v>77.156165099999996</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.25336239637878782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -660,11 +660,12 @@
       <c r="E13">
         <v>56.56</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.62737924242424248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -680,11 +681,12 @@
       <c r="E14">
         <v>54.23</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.3631757575757576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -700,11 +702,12 @@
       <c r="E15">
         <v>24.26</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.33610848484848477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -720,11 +723,12 @@
       <c r="E16">
         <v>79.468000000000004</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.29116296073232328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -740,11 +744,12 @@
       <c r="E17">
         <v>74.561999999999998</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.24766740517676764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -760,11 +765,12 @@
       <c r="E18">
         <v>26.145</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.35308525252525264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -780,11 +786,12 @@
       <c r="E19">
         <v>28.486000000000001</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.35828207070707063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -800,11 +807,12 @@
       <c r="E20">
         <v>75.156000000000006</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.24619762626262626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -820,8 +828,10 @@
       <c r="E21">
         <v>74.56</v>
       </c>
-      <c r="G21">
-        <v>1</v>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
